--- a/data/trans_bre/P1423-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Provincia-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -619,17 +635,27 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>285,91%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>148,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>192,57%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>187,77%</t>
         </is>
       </c>
     </row>
@@ -647,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 12,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,17 +683,27 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,83; 5,49</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>89,44; 861,01</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>34,78; 358,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>63,46; 505,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19,77; 717,41</t>
         </is>
       </c>
     </row>
@@ -699,17 +735,27 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,01</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>269,22%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>230,91%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>212,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>144,41%</t>
         </is>
       </c>
     </row>
@@ -737,17 +783,27 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,61; 11,23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>79,56; 618,02</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>72,64; 584,86</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>79,36; 482,77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53,13; 285,64</t>
         </is>
       </c>
     </row>
@@ -779,17 +835,27 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>470,23%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>119,23%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>502,86%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -817,17 +883,27 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,01; 10,26</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>33,6; 2256,14</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>19,07; 346,1</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>112,06; 2607,6</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19,46; 158,67</t>
         </is>
       </c>
     </row>
@@ -849,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -859,17 +935,27 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>111,33%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>260,77%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>432,52%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>130,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -887,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,42</t>
+          <t>7,11; 14,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,17 +983,27 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-5,3; 4,16</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>-16,61; 457,04</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>129,46; 470,36</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>129,23; 1120,93</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>10,52; 389,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-48,68; 69,82</t>
         </is>
       </c>
     </row>
@@ -939,17 +1035,27 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>195,9%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>309,2%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>132,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>272,44%</t>
         </is>
       </c>
     </row>
@@ -977,17 +1083,27 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>0,82; 7,76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>27,18; 700,4</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>112,06; 772,13</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>20,22; 391,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 1152,56</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1135,27 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>695,02%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>155,91%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>398,9%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48,29%</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1183,27 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-0,03; 9,35</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>70,62; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>35,69; 428,34</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>133,66; 1352,77</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 115,37</t>
         </is>
       </c>
     </row>
@@ -1099,17 +1235,27 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>4,33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>169,38%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>74,21%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>279,93%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>59,73%</t>
         </is>
       </c>
     </row>
@@ -1137,17 +1283,27 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-3,52; 9,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>65,58; 355,41</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>15,4; 174,82</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>104,67; 607,66</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-33,77; 143,74</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1335,27 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>7,89</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>26,51%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>179,15%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>175,21%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>208,18%</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1383,27 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>5,28; 11,22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>-14,19; 87,34</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>69,71; 366,78</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>90,52; 315,5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>92,26; 615,81</t>
         </is>
       </c>
     </row>
@@ -1259,17 +1435,27 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>145,93%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>174,01%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>212,83%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>95,08%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1483,27 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>3,39; 7,21</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
           <t>94,2; 210,06</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>125,35; 236,43</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>154,23; 286,66</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>56,61; 154,98</t>
         </is>
       </c>
     </row>
@@ -1320,16 +1516,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/P1423-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 12,01</t>
+          <t>3,7; 12,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 12,33</t>
+          <t>2,95; 12,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,27</t>
+          <t>4,4; 14,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,49</t>
+          <t>1,16; 5,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,44; 861,01</t>
+          <t>75,6; 825,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,78; 358,3</t>
+          <t>38,24; 393,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,46; 505,51</t>
+          <t>56,72; 516,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,77; 717,41</t>
+          <t>32,54; 790,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,55</t>
+          <t>3,96; 9,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,64</t>
+          <t>4,97; 12,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,03</t>
+          <t>3,68; 9,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,23</t>
+          <t>4,3; 11,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,56; 618,02</t>
+          <t>107,77; 695,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,64; 584,86</t>
+          <t>73,53; 533,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,36; 482,77</t>
+          <t>80,49; 500,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,13; 285,64</t>
+          <t>54,59; 284,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,63</t>
+          <t>2,52; 8,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 11,39</t>
+          <t>1,79; 10,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 10,01</t>
+          <t>3,84; 10,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 10,26</t>
+          <t>2,12; 10,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,6; 2256,14</t>
+          <t>41,3; 2240,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,07; 346,1</t>
+          <t>13,99; 294,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>112,06; 2607,6</t>
+          <t>108,99; 2351,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,46; 158,67</t>
+          <t>19,41; 171,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,89</t>
+          <t>-0,13; 5,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 14,73</t>
+          <t>7,37; 14,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,96</t>
+          <t>0,71; 7,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 4,16</t>
+          <t>-5,65; 4,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 457,04</t>
+          <t>-13,13; 486,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>129,23; 1120,93</t>
+          <t>168,0; 1200,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 389,55</t>
+          <t>5,37; 406,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 69,82</t>
+          <t>-49,65; 68,91</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 12,16</t>
+          <t>1,96; 12,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 22,38</t>
+          <t>9,34; 22,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 13,16</t>
+          <t>1,85; 12,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,76</t>
+          <t>0,73; 7,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,18; 700,4</t>
+          <t>26,28; 690,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>112,06; 772,13</t>
+          <t>123,69; 782,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,22; 391,11</t>
+          <t>23,71; 401,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,29; 1152,56</t>
+          <t>19,63; 1100,37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,43</t>
+          <t>2,15; 8,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,33; 13,26</t>
+          <t>2,88; 12,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 14,6</t>
+          <t>6,16; 14,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 9,35</t>
+          <t>0,17; 9,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,62; —</t>
+          <t>62,97; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,69; 428,34</t>
+          <t>32,55; 375,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>133,66; 1352,77</t>
+          <t>133,97; 1157,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 115,37</t>
+          <t>0,75; 122,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,69</t>
+          <t>2,56; 7,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,79</t>
+          <t>1,05; 6,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,63</t>
+          <t>3,87; 8,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 9,18</t>
+          <t>-3,51; 9,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,58; 355,41</t>
+          <t>55,11; 378,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,4; 174,82</t>
+          <t>11,14; 173,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>104,67; 607,66</t>
+          <t>108,94; 620,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 143,74</t>
+          <t>-28,46; 143,35</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,14</t>
+          <t>-0,82; 4,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,95</t>
+          <t>3,21; 7,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,2</t>
+          <t>4,64; 10,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,28; 11,22</t>
+          <t>5,34; 11,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 87,34</t>
+          <t>-12,09; 100,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>69,71; 366,78</t>
+          <t>69,9; 359,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>90,52; 315,5</t>
+          <t>86,6; 307,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>92,26; 615,81</t>
+          <t>94,17; 574,9</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,55</t>
+          <t>3,44; 5,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,46</t>
+          <t>5,83; 8,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,08</t>
+          <t>5,78; 8,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,21</t>
+          <t>3,19; 6,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>94,2; 210,06</t>
+          <t>96,3; 209,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>125,35; 236,43</t>
+          <t>121,93; 235,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>154,23; 286,66</t>
+          <t>156,24; 293,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>56,61; 154,98</t>
+          <t>54,36; 143,15</t>
         </is>
       </c>
     </row>
